--- a/medicine/Psychotrope/Livres_en_Vignes/Livres_en_Vignes.xlsx
+++ b/medicine/Psychotrope/Livres_en_Vignes/Livres_en_Vignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Livres en Vignes est un salon du livre et de l'œnophilie bourguignonne, consacré à la littérature, générale, à celle du vin et de la vigne, et à un certain art de vivre. Cet événement culturel est organisé depuis 2008, tous les derniers week-ends de septembre, au château du Clos de Vougeot, sur la route des Grands Crus, dans le vignoble de Bourgogne, en Bourgogne-Franche-Comté. Un jury y décerne trois prix littéraires annuels
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2008, la dijonnaise Evelyne Philippe[1], présidente de l'Association pour la promotion culturelle et touristique du vin et du livre en Bourgogne (A.P.C.V.L.B.), organise chaque dernier week-end de septembre, à la fin des vendanges du vignoble de Bourgogne, cet événement culturel bourguignon, pour les amateurs de littérature et de vin, au château du Clos de Vougeot, haut lieu prestigieux du patrimoine et de la culture bourguignonne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2008, la dijonnaise Evelyne Philippe, présidente de l'Association pour la promotion culturelle et touristique du vin et du livre en Bourgogne (A.P.C.V.L.B.), organise chaque dernier week-end de septembre, à la fin des vendanges du vignoble de Bourgogne, cet événement culturel bourguignon, pour les amateurs de littérature et de vin, au château du Clos de Vougeot, haut lieu prestigieux du patrimoine et de la culture bourguignonne.
 			Château du Clos de Vougeot
 			Conférences dans la salle des pressoirs
 			Conférences
@@ -552,10 +566,12 @@
           <t>Présidents d'honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2017 : Luc Ferry. Invité d'honneur : Jacques Glénat.
-2015 : Daniel Picouly. Invités d'honneur : Denise Bombardier, Andreï Gratchev, Teresa Cremisi et Dominique Loiseau [2],[3]
+2015 : Daniel Picouly. Invités d'honneur : Denise Bombardier, Andreï Gratchev, Teresa Cremisi et Dominique Loiseau ,
 2014 : Dominique Bona. Invités d'honneur : Marie-Christine Barrault, Michael Edwards, Pierre Gagnaire, Patrick Raynal et Isabelle Laffont
 2013 : David Foenkinos. Invitée d'honneur : Muriel Beyer
 2012 : Patrick de Carolis
@@ -590,12 +606,49 @@
           <t>Prix annuels « Livres en Vignes »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Trois prix littéraires annuels sont remis lors d'une soirée inaugurale du vendredi soir, par des jurys composés de journalistes,
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois prix littéraires annuels sont remis lors d'une soirée inaugurale du vendredi soir, par des jurys composés de journalistes,
 écrivains et professionnels du livre.
-Prix du Clos-Vougeot
-Attribué à un ouvrage sur le vin, la vigne et un certain art de vivre, parrainé par la confrérie des chevaliers du Tastevin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Livres_en_Vignes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Livres_en_Vignes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix annuels « Livres en Vignes »</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix du Clos-Vougeot</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Attribué à un ouvrage sur le vin, la vigne et un certain art de vivre, parrainé par la confrérie des chevaliers du Tastevin
 2015 : Jean-François Bazin pour Le Crémant de Bourgogne, deux siècles d'effervescence, préface de Dominique Loiseau, éditions Dunod
 2014 : Michel Tolmer, Mimi, Fifi &amp; Glouglou, éditions de l'Epure
 2013 : Fred Bernard, Chroniques sur la vigne, éditions Glénat
@@ -603,9 +656,43 @@
 2011 : Jacky Rigaux, Les temps de la vigne Henri Jayer, vigneron en Bourgogne, éditions Terre en vues
 2010 : Claude Gilois et Ricardo Uztarroz, Tour du monde épicurien des vins insolites, éditions Arthaud
 2009 : Robert Camuto, Un Américain dans les vignes, Une ode amoureuse à la France du bien vivre, édition Michel Lafon
-2008 : Jean-Guy Soumy, La Chair des Etoiles, éditions Robert Laffont
-Prix Albert Bichot
-Attribué à un ouvrage de littérature généraliste contemporaine, il est parrainé par le domaine viticole Bouchard Père &amp; Fils jusqu'en 2011, puis par le domaine Albert Bichot.
+2008 : Jean-Guy Soumy, La Chair des Etoiles, éditions Robert Laffont</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Livres_en_Vignes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Livres_en_Vignes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix annuels « Livres en Vignes »</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix Albert Bichot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Attribué à un ouvrage de littérature généraliste contemporaine, il est parrainé par le domaine viticole Bouchard Père &amp; Fils jusqu'en 2011, puis par le domaine Albert Bichot.
 2015 : Jean-François Kervéan, Animarex, éditions Robert Laffont
 2014 : Akli Tadjer, Les thermes du paradis, éditions JC Lattès
 2013 : Olivier Bleys, Le maître de café, éditions Albin Michel
@@ -613,9 +700,43 @@
 2011 : Jean-Pierre Otte, Un cercle de lecteurs autour d’une poêlée de châtaignes, éditions Julliard
 2010 : Martin Provost, Bifteck, éditions Phebus
 2009 : Antoine Laurain, Carrefour des nostalgies, éditions Le Passage
-2008 : Jacques Dupont[Lequel ?], Choses bues, éditions Grasset
-Prix Méo-Camuzet
-Attribué à un premier roman, parrainé par le domaine viticole Méo-Camuzet
+2008 : Jacques Dupont[Lequel ?], Choses bues, éditions Grasset</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Livres_en_Vignes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Livres_en_Vignes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prix annuels « Livres en Vignes »</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix Méo-Camuzet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Attribué à un premier roman, parrainé par le domaine viticole Méo-Camuzet
 2017 : François-Régis de Guenyveau, Un dissident, Editions Albin Michel
 2016 : Tom Graffin, Jukebox Motel, Éditions Jean-Claude Lattès
 2015 : Teresa Cremisi, La Triomphante, éditions des Équateurs
@@ -626,31 +747,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Livres_en_Vignes</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Livres_en_Vignes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix coup de cœur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2010 : Laurent Gotti, Hospices de Beaune, éditions Féret</t>
         </is>
